--- a/data/trans_orig/AIRE_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1144</v>
+        <v>1339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10367</v>
+        <v>10759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01586354639025471</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004009020841280819</v>
+        <v>0.004694071805200353</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0363385037659455</v>
+        <v>0.03771475368784396</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5352</v>
+        <v>5365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006704484941363152</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02274368075060934</v>
+        <v>0.02279935572152001</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>6103</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2234</v>
+        <v>2698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12250</v>
+        <v>12283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01172363083145483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004290729236159956</v>
+        <v>0.005183009686923329</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02353174609370814</v>
+        <v>0.0235946583236416</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4348</v>
+        <v>3855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19094</v>
+        <v>17586</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03257759525516107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01524194138699771</v>
+        <v>0.01351299371783737</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06692908606516752</v>
+        <v>0.0616425155045426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>4226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1729</v>
+        <v>1470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8720</v>
+        <v>9321</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01796007764804649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007346398763157877</v>
+        <v>0.006247154380571812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03705826212140819</v>
+        <v>0.03961299870904972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -854,19 +854,19 @@
         <v>13520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7542</v>
+        <v>6944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23658</v>
+        <v>23244</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02597044572238351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01448692318883536</v>
+        <v>0.01333865610511911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04544525320298997</v>
+        <v>0.0446495162915934</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3117</v>
+        <v>3868</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003037114662787354</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01324702149979273</v>
+        <v>0.01643665753334391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3783</v>
+        <v>3895</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001372782387856373</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007267564979932391</v>
+        <v>0.007482215810310629</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5862</v>
+        <v>5644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003918357774756152</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02054951216279428</v>
+        <v>0.01978436088125033</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4909</v>
+        <v>5596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002147251596773185</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.00942942016875927</v>
+        <v>0.01074850304505497</v>
       </c>
     </row>
     <row r="8">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5904</v>
+        <v>6166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007784049973018579</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02509113573965661</v>
+        <v>0.02620427349428667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6383</v>
+        <v>5780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003518407401631236</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01226082188304615</v>
+        <v>0.01110191612387651</v>
       </c>
     </row>
     <row r="9">
@@ -1072,19 +1072,19 @@
         <v>5157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1733</v>
+        <v>1891</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11331</v>
+        <v>12311</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01807805952990736</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006075544622890661</v>
+        <v>0.006629240021426246</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03971901040851994</v>
+        <v>0.04315264639539447</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1093,19 +1093,19 @@
         <v>6349</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3043</v>
+        <v>3134</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10863</v>
+        <v>11124</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02698254223034108</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01293147452142269</v>
+        <v>0.01331784755470562</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04616348203197818</v>
+        <v>0.04727212722453812</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -1114,19 +1114,19 @@
         <v>11507</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6804</v>
+        <v>6352</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19650</v>
+        <v>18736</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02210290494450507</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01306884054840004</v>
+        <v>0.01220214431699523</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03774583366461124</v>
+        <v>0.03599069427187412</v>
       </c>
     </row>
     <row r="10">
@@ -1143,19 +1143,19 @@
         <v>2728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7550</v>
+        <v>7742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009560783672494471</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002381070131517418</v>
+        <v>0.002374190735577746</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02646584946737729</v>
+        <v>0.02713955983797644</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1164,19 +1164,19 @@
         <v>3582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1275</v>
+        <v>1149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8645</v>
+        <v>8146</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01522073037866739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005418307687032308</v>
+        <v>0.004881599399839081</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03673961164446689</v>
+        <v>0.03461644338732467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1185,19 +1185,19 @@
         <v>6309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2928</v>
+        <v>2704</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12159</v>
+        <v>12227</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01211909180937231</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005625031833513432</v>
+        <v>0.005194717467766663</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02335647032250264</v>
+        <v>0.02348628039453071</v>
       </c>
     </row>
     <row r="11">
@@ -1214,19 +1214,19 @@
         <v>6230</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2614</v>
+        <v>2507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12275</v>
+        <v>12745</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02183747816537254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009162225379842532</v>
+        <v>0.008788122259064397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04302667259281888</v>
+        <v>0.04467359949512297</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1235,19 +1235,19 @@
         <v>11900</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6840</v>
+        <v>6654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19658</v>
+        <v>19205</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05057214181602099</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02906925760011499</v>
+        <v>0.02827592334351487</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08354192907168009</v>
+        <v>0.08161687896551063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -1256,19 +1256,19 @@
         <v>18130</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11778</v>
+        <v>11450</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27992</v>
+        <v>28159</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03482560820336866</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02262376096250588</v>
+        <v>0.02199396146954704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05376932997710433</v>
+        <v>0.05409134215342356</v>
       </c>
     </row>
     <row r="12">
@@ -1285,19 +1285,19 @@
         <v>7922</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3938</v>
+        <v>3882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15706</v>
+        <v>14818</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02776858013685774</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01380299531916069</v>
+        <v>0.01360869362613558</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05505575555489649</v>
+        <v>0.051939975107095</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1306,19 +1306,19 @@
         <v>3700</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1128</v>
+        <v>1274</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8352</v>
+        <v>8307</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01572404339924596</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004794364891124438</v>
+        <v>0.005414013861278261</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03549299580778308</v>
+        <v>0.03530285618886058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1327,19 +1327,19 @@
         <v>11622</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6835</v>
+        <v>6239</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19501</v>
+        <v>18718</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02232442351482632</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01312934485776467</v>
+        <v>0.01198462562523495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03745879184937789</v>
+        <v>0.03595448503555911</v>
       </c>
     </row>
     <row r="13">
@@ -1356,19 +1356,19 @@
         <v>21745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13142</v>
+        <v>14423</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31710</v>
+        <v>33936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07622235329382236</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04606626013352323</v>
+        <v>0.05055713642028204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1111546001467431</v>
+        <v>0.1189543326197995</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1377,19 +1377,19 @@
         <v>19541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12772</v>
+        <v>12793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29343</v>
+        <v>29374</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08304634734865463</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05427981833571259</v>
+        <v>0.05436734273422766</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1247004729965771</v>
+        <v>0.12483119300513</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -1398,19 +1398,19 @@
         <v>41286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30800</v>
+        <v>31532</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56212</v>
+        <v>54205</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07930681334667818</v>
+        <v>0.07930681334667819</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05916283135063825</v>
+        <v>0.0605689015354289</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1079770668880534</v>
+        <v>0.1041230955656405</v>
       </c>
     </row>
     <row r="14">
@@ -1427,19 +1427,19 @@
         <v>42694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31563</v>
+        <v>32378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55520</v>
+        <v>54862</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1496552324247675</v>
+        <v>0.1496552324247674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1106396261544845</v>
+        <v>0.1134935704268678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1946145039549656</v>
+        <v>0.1923093973017213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -1448,19 +1448,19 @@
         <v>28642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21171</v>
+        <v>21137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37600</v>
+        <v>37429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1217200625708473</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0899727592456646</v>
+        <v>0.08982769415356909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1597888991594977</v>
+        <v>0.1590624456332153</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -1469,19 +1469,19 @@
         <v>71336</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58838</v>
+        <v>57990</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86680</v>
+        <v>85666</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1370284753098278</v>
+        <v>0.1370284753098277</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1130221954212114</v>
+        <v>0.1113934524065135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1665025749911909</v>
+        <v>0.1645564517560501</v>
       </c>
     </row>
     <row r="15">
@@ -1498,19 +1498,19 @@
         <v>183869</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>167691</v>
+        <v>165762</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>200143</v>
+        <v>198901</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6445180133566061</v>
+        <v>0.6445180133566062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5878083377104457</v>
+        <v>0.5810458730448906</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7015615228842697</v>
+        <v>0.6972090451017355</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>225</v>
@@ -1519,19 +1519,19 @@
         <v>153244</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>141471</v>
+        <v>141281</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>165290</v>
+        <v>165594</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6512484050310071</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.601216026540941</v>
+        <v>0.6004073465195581</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7024392872574611</v>
+        <v>0.7037327028074482</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>410</v>
@@ -1540,19 +1540,19 @@
         <v>337113</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>314517</v>
+        <v>316183</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>356387</v>
+        <v>356832</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6475601649313225</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.604155834184592</v>
+        <v>0.6073549576155688</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6845819338316014</v>
+        <v>0.6854376852450381</v>
       </c>
     </row>
     <row r="16">
@@ -1644,19 +1644,19 @@
         <v>4550</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1711</v>
+        <v>1597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10938</v>
+        <v>11113</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01672344858021252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006287432197772928</v>
+        <v>0.005870183292989363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0401975906594173</v>
+        <v>0.04084044579389132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1665,19 +1665,19 @@
         <v>2642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8471</v>
+        <v>7979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01306575177877686</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002335663832600459</v>
+        <v>0.002382631625551162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04189486649899628</v>
+        <v>0.03946435846154597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1686,19 +1686,19 @@
         <v>7192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3467</v>
+        <v>3231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15034</v>
+        <v>13832</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0151641528864716</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007310841948739386</v>
+        <v>0.006813153083288045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03169839646938674</v>
+        <v>0.02916368324219416</v>
       </c>
     </row>
     <row r="18">
@@ -1715,19 +1715,19 @@
         <v>5953</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2256</v>
+        <v>2316</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13196</v>
+        <v>12725</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02187944857127501</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008291941108953394</v>
+        <v>0.008511486919341074</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04849696223932948</v>
+        <v>0.04676568300134242</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1736,19 +1736,19 @@
         <v>2159</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6022</v>
+        <v>6436</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01067655855309243</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003430068704259164</v>
+        <v>0.003423689778447384</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0297841968981282</v>
+        <v>0.03182908752816118</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -1757,19 +1757,19 @@
         <v>8112</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3536</v>
+        <v>4102</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15036</v>
+        <v>14954</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01710359668657294</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007455261806690674</v>
+        <v>0.008648323944930481</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03170118606267317</v>
+        <v>0.03152901667013423</v>
       </c>
     </row>
     <row r="19">
@@ -1896,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4600</v>
+        <v>4831</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.007380439107362517</v>
+        <v>0.007380439107362516</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0227501644434022</v>
+        <v>0.02389094586763407</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1917,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5060</v>
+        <v>5322</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.003146320633659519</v>
+        <v>0.003146320633659518</v>
       </c>
       <c r="V21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01066783233464838</v>
+        <v>0.01122127901603988</v>
       </c>
     </row>
     <row r="22">
@@ -1943,19 +1943,19 @@
         <v>5545</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13312</v>
+        <v>13729</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02038025292087088</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005804594164876905</v>
+        <v>0.005855610902476913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04892511909740316</v>
+        <v>0.05045658515078382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1964,19 +1964,19 @@
         <v>2744</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6744</v>
+        <v>6481</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01357354847446045</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003682046017375303</v>
+        <v>0.00349069996550145</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03335564715431469</v>
+        <v>0.03205412404629376</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -1985,19 +1985,19 @@
         <v>8290</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3927</v>
+        <v>3590</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17203</v>
+        <v>16902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01747851843930066</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008279790231846185</v>
+        <v>0.007568948198237281</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03627095887472913</v>
+        <v>0.03563649918154495</v>
       </c>
     </row>
     <row r="23">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5826</v>
+        <v>5334</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006239843195490866</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02141133490393242</v>
+        <v>0.01960498547299684</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2035,19 +2035,19 @@
         <v>3162</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8528</v>
+        <v>8661</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01563707321705522</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003623389399464278</v>
+        <v>0.003593895920521982</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04217729209185976</v>
+        <v>0.0428336180016216</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -2056,19 +2056,19 @@
         <v>4860</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1978</v>
+        <v>2004</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11015</v>
+        <v>10981</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.0102459325739125</v>
+        <v>0.01024593257391249</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004169841843806047</v>
+        <v>0.004225723871054166</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02322354790745236</v>
+        <v>0.02315240374972617</v>
       </c>
     </row>
     <row r="24">
@@ -2085,19 +2085,19 @@
         <v>6830</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2105</v>
+        <v>2319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15511</v>
+        <v>18101</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02510294529569</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007737678906592962</v>
+        <v>0.008521753563628616</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05700667842945076</v>
+        <v>0.06652231839884348</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2106,19 +2106,19 @@
         <v>4417</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1693</v>
+        <v>1883</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9045</v>
+        <v>8868</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02184677893051725</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008371995783219134</v>
+        <v>0.009311356173644191</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04473510896016224</v>
+        <v>0.04386034909608156</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -2127,19 +2127,19 @@
         <v>11248</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6160</v>
+        <v>5710</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22052</v>
+        <v>22702</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02371482417276778</v>
+        <v>0.02371482417276777</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01298784452607967</v>
+        <v>0.01203819448760653</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04649567016976033</v>
+        <v>0.04786484587600399</v>
       </c>
     </row>
     <row r="25">
@@ -2156,19 +2156,19 @@
         <v>4940</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1813</v>
+        <v>1687</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11004</v>
+        <v>12160</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01815458346483338</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00666237781807003</v>
+        <v>0.006201353692686263</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04044001983389726</v>
+        <v>0.04469151255022179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2177,19 +2177,19 @@
         <v>1445</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3803</v>
+        <v>3908</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.007148391468203416</v>
+        <v>0.007148391468203414</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0</v>
+        <v>0.002267994571919479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01880827113430985</v>
+        <v>0.01932797009252279</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2198,19 +2198,19 @@
         <v>6385</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2954</v>
+        <v>2607</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13146</v>
+        <v>12629</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01346258499790338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006228968313082424</v>
+        <v>0.0054969691101045</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02771787223525824</v>
+        <v>0.02662795139370893</v>
       </c>
     </row>
     <row r="26">
@@ -2227,19 +2227,19 @@
         <v>11389</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5287</v>
+        <v>5331</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21507</v>
+        <v>21089</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04185685937070083</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01943161137941961</v>
+        <v>0.01959051387478513</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07904062009520851</v>
+        <v>0.07750354513205786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -2248,19 +2248,19 @@
         <v>10992</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6610</v>
+        <v>6373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17228</v>
+        <v>17698</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05436237198953132</v>
+        <v>0.0543623719895313</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03269373334422043</v>
+        <v>0.03152116588126377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0852063591233567</v>
+        <v>0.08753179104005034</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -2269,19 +2269,19 @@
         <v>22381</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13806</v>
+        <v>14413</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34489</v>
+        <v>34220</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.04718802623147271</v>
+        <v>0.0471880262314727</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0291085319287239</v>
+        <v>0.03038920223353472</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07271631880966101</v>
+        <v>0.07214876224407536</v>
       </c>
     </row>
     <row r="27">
@@ -2298,19 +2298,19 @@
         <v>46008</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>35043</v>
+        <v>35142</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>59778</v>
+        <v>59862</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1690865974346823</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1287880194154919</v>
+        <v>0.1291511315733482</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2196939761604312</v>
+        <v>0.2200022983691503</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -2319,19 +2319,19 @@
         <v>13913</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9377</v>
+        <v>8853</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>21460</v>
+        <v>20780</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.06881212502513499</v>
+        <v>0.06881212502513497</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04637494254425768</v>
+        <v>0.0437836423716387</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1061344934268831</v>
+        <v>0.1027722491338057</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>72</v>
@@ -2340,19 +2340,19 @@
         <v>59921</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>46609</v>
+        <v>47513</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>74761</v>
+        <v>75375</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1263390539644366</v>
+        <v>0.1263390539644365</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09826997166716946</v>
+        <v>0.1001764745859573</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1576266695093578</v>
+        <v>0.1589224010140073</v>
       </c>
     </row>
     <row r="28">
@@ -2369,19 +2369,19 @@
         <v>185183</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>168065</v>
+        <v>168111</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>199591</v>
+        <v>201662</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6805760211662442</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6176626063344354</v>
+        <v>0.6178322236072692</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7335273593622624</v>
+        <v>0.7411382728327635</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>224</v>
@@ -2390,19 +2390,19 @@
         <v>159226</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>147924</v>
+        <v>148273</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>168201</v>
+        <v>168455</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7874969614558657</v>
+        <v>0.7874969614558655</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7315978711532071</v>
+        <v>0.7333250537716701</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8318846377979936</v>
+        <v>0.8331376068466705</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>410</v>
@@ -2411,19 +2411,19 @@
         <v>344410</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>323398</v>
+        <v>324375</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>361795</v>
+        <v>361656</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7261569894135024</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6818566364081537</v>
+        <v>0.6839164299339766</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7628126855218653</v>
+        <v>0.7625197543775253</v>
       </c>
     </row>
     <row r="29">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5483</v>
+        <v>4691</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01659233134822905</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05905918468753022</v>
+        <v>0.05052197240383952</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5332</v>
+        <v>5261</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004477565906248221</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01549588853794852</v>
+        <v>0.01529100134499382</v>
       </c>
     </row>
     <row r="31">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3655</v>
+        <v>4110</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003171348610480461</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01454803909639104</v>
+        <v>0.01635958375097704</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4426</v>
+        <v>4042</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00231553624047071</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01286370075591323</v>
+        <v>0.01174936613971091</v>
       </c>
     </row>
     <row r="32">
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5001</v>
+        <v>5172</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.003993636428269851</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01990543049410588</v>
+        <v>0.0205884179689168</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5155</v>
+        <v>5018</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.00291592348137402</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0149821145566768</v>
+        <v>0.01458404866522067</v>
       </c>
     </row>
     <row r="34">
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6284</v>
+        <v>6286</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.004459718722565492</v>
+        <v>0.004459718722565491</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02501586060961442</v>
+        <v>0.02502371354438461</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4937</v>
+        <v>6493</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003256229949075717</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01435054649503204</v>
+        <v>0.01887159072847994</v>
       </c>
     </row>
     <row r="36">
@@ -2864,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9116</v>
+        <v>7100</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.008728123361726988</v>
+        <v>0.008728123361726986</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03628982921326681</v>
+        <v>0.02826420819480088</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7305</v>
+        <v>7899</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006372773364803945</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02123301755822307</v>
+        <v>0.0229569648884327</v>
       </c>
     </row>
     <row r="37">
@@ -2924,19 +2924,19 @@
         <v>6741</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2319</v>
+        <v>2629</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17567</v>
+        <v>18678</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02683207069660077</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.009229231550951098</v>
+        <v>0.01046405503685998</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06992960410615516</v>
+        <v>0.07434970721523698</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5013</v>
+        <v>4422</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01396384210976259</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05399523851802117</v>
+        <v>0.04762143923170244</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7</v>
@@ -2966,19 +2966,19 @@
         <v>8037</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3690</v>
+        <v>3401</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>18138</v>
+        <v>19850</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02335948204193982</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01072441024005606</v>
+        <v>0.009883584388924971</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05271750146375351</v>
+        <v>0.05769354416773455</v>
       </c>
     </row>
     <row r="38">
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5286</v>
+        <v>5858</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.00667537345374568</v>
+        <v>0.006675373453745679</v>
       </c>
       <c r="H38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02104080287969941</v>
+        <v>0.02331753611779075</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5900</v>
+        <v>5143</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004873973520206124</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01714865435089075</v>
+        <v>0.01494810262061388</v>
       </c>
     </row>
     <row r="39">
@@ -3058,19 +3058,19 @@
         <v>13430</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>6933</v>
+        <v>6774</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>23954</v>
+        <v>24413</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05346126665709096</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02759806649079752</v>
+        <v>0.02696568261197591</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09535413685978514</v>
+        <v>0.09718114749253566</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>8</v>
@@ -3079,19 +3079,19 @@
         <v>5536</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2750</v>
+        <v>2633</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10208</v>
+        <v>11693</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05962112021856921</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02962348446550762</v>
+        <v>0.02835914401511517</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.109941593041964</v>
+        <v>0.1259389889226905</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>19</v>
@@ -3100,19 +3100,19 @@
         <v>18966</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>12118</v>
+        <v>11095</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>30743</v>
+        <v>29933</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.05512354965491094</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03522161712544544</v>
+        <v>0.03224742962136493</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.08935286844290814</v>
+        <v>0.08699960913578718</v>
       </c>
     </row>
     <row r="40">
@@ -3129,19 +3129,19 @@
         <v>26843</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17922</v>
+        <v>19623</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>36303</v>
+        <v>36677</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1068525253297838</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07134074982058242</v>
+        <v>0.07811258922202721</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1445109979570816</v>
+        <v>0.1460012193204656</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>15</v>
@@ -3150,19 +3150,19 @@
         <v>9030</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5350</v>
+        <v>5325</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14891</v>
+        <v>14315</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.09725647794095531</v>
+        <v>0.09725647794095529</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05762314578958833</v>
+        <v>0.05735597010050956</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1603786436343375</v>
+        <v>0.1541773323294348</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>49</v>
@@ -3171,19 +3171,19 @@
         <v>35873</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>27139</v>
+        <v>27578</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>48171</v>
+        <v>47134</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1042629594802839</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07887799559441171</v>
+        <v>0.08015481115752489</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1400079428518645</v>
+        <v>0.1369928677919569</v>
       </c>
     </row>
     <row r="41">
@@ -3200,19 +3200,19 @@
         <v>197410</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>183261</v>
+        <v>182468</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>210591</v>
+        <v>209820</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.785825936739736</v>
+        <v>0.7858259367397359</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.729504630178518</v>
+        <v>0.7263466599509331</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8382980270984385</v>
+        <v>0.8352275732670987</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>123</v>
@@ -3221,19 +3221,19 @@
         <v>75444</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>68294</v>
+        <v>68102</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>81054</v>
+        <v>80975</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.8125662283824838</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.7355549152514348</v>
+        <v>0.7334914787970062</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.872989617253062</v>
+        <v>0.8721374345778519</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>332</v>
@@ -3242,19 +3242,19 @@
         <v>272854</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>256658</v>
+        <v>257313</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>287996</v>
+        <v>286153</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.7930420063606864</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.745968454023318</v>
+        <v>0.747873164683609</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.8370524181238221</v>
+        <v>0.8316955965111235</v>
       </c>
     </row>
     <row r="42">
@@ -3346,19 +3346,19 @@
         <v>4230</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>12288</v>
+        <v>12818</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.007434299246837275</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.001506927046090002</v>
+        <v>0.001505004222843271</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02159574914652932</v>
+        <v>0.0225284028977012</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2</v>
@@ -3370,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>4620</v>
+        <v>4850</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.003213467357026717</v>
+        <v>0.003213467357026716</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01080663778314319</v>
+        <v>0.01134588980445431</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>5</v>
@@ -3388,19 +3388,19 @@
         <v>5604</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2138</v>
+        <v>2027</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>14583</v>
+        <v>15006</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.005623537896910173</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.002145605225613983</v>
+        <v>0.002034034690082231</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01463428010927961</v>
+        <v>0.01505914850347065</v>
       </c>
     </row>
     <row r="44">
@@ -3417,19 +3417,19 @@
         <v>6211</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2201</v>
+        <v>2279</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>14043</v>
+        <v>13911</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01091572726090156</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003867686960008187</v>
+        <v>0.004005831636230819</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02468080402767145</v>
+        <v>0.02444929224793561</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>4</v>
@@ -3438,19 +3438,19 @@
         <v>3293</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>8306</v>
+        <v>8034</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.007703694871709051</v>
+        <v>0.00770369487170905</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001764904906578605</v>
+        <v>0.001794154596789875</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01942973546877737</v>
+        <v>0.01879378936895816</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>9</v>
@@ -3459,19 +3459,19 @@
         <v>9504</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4387</v>
+        <v>4348</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>17783</v>
+        <v>17350</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.009537746744997891</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.00440248427090682</v>
+        <v>0.004362939137473638</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01784566591501164</v>
+        <v>0.01741123254914961</v>
       </c>
     </row>
     <row r="45">
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5356</v>
+        <v>6579</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002088855860300993</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.009412364038628402</v>
+        <v>0.01156298191033015</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -3556,19 +3556,19 @@
         <v>2816</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>9001</v>
+        <v>7932</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.006587463626888303</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001622707077325134</v>
+        <v>0.001616712503020599</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02105495539390487</v>
+        <v>0.01855340379924431</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>4</v>
@@ -3577,19 +3577,19 @@
         <v>4005</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1165</v>
+        <v>930</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>9926</v>
+        <v>10321</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.004018784671700253</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001169572609967208</v>
+        <v>0.0009329043692229156</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.009960658859058327</v>
+        <v>0.01035723813395005</v>
       </c>
     </row>
     <row r="47">
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>4838</v>
+        <v>3667</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.001690828310886541</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01131793319906625</v>
+        <v>0.008577176166407784</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3646</v>
+        <v>3243</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0007253751475170196</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.003658642410154151</v>
+        <v>0.003254549385377671</v>
       </c>
     </row>
     <row r="48">
@@ -3669,19 +3669,19 @@
         <v>6199</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2293</v>
+        <v>2145</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>13450</v>
+        <v>13541</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01089537415406405</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.004030430786433959</v>
+        <v>0.003769754459112539</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02363923898103916</v>
+        <v>0.02379814748966482</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>6</v>
@@ -3690,19 +3690,19 @@
         <v>3732</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1376</v>
+        <v>1323</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>8842</v>
+        <v>7868</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.008730223757089163</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.003218876722258503</v>
+        <v>0.003094260764679072</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02068360345713174</v>
+        <v>0.01840366600574886</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>12</v>
@@ -3711,19 +3711,19 @@
         <v>9931</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>5071</v>
+        <v>5182</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>17480</v>
+        <v>17500</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.009966512081853587</v>
+        <v>0.009966512081853585</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.005089231087182329</v>
+        <v>0.005200090158813259</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01754152451733732</v>
+        <v>0.01756218877594173</v>
       </c>
     </row>
     <row r="49">
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>7210</v>
+        <v>7741</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.003702162163928244</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01267084158593757</v>
+        <v>0.01360508361799115</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>4</v>
@@ -3761,19 +3761,19 @@
         <v>2923</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>7097</v>
+        <v>6904</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.006838507082145401</v>
+        <v>0.0068385070821454</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.00175188202718815</v>
+        <v>0.001723546969537783</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01660127694421333</v>
+        <v>0.01614980163479218</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>6</v>
@@ -3782,19 +3782,19 @@
         <v>5030</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1999</v>
+        <v>2078</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>11372</v>
+        <v>10471</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.00504767231600464</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.002005793402376351</v>
+        <v>0.002085590913452898</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01141185398529603</v>
+        <v>0.0105076420345455</v>
       </c>
     </row>
     <row r="50">
@@ -3811,19 +3811,19 @@
         <v>7029</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>3469</v>
+        <v>3046</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>14286</v>
+        <v>13214</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01235358866119762</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.006096490261173869</v>
+        <v>0.005352536483653915</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02510735038706516</v>
+        <v>0.02322422427163462</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>14</v>
@@ -3832,19 +3832,19 @@
         <v>10825</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>6022</v>
+        <v>6259</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>19534</v>
+        <v>18870</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02532203648612301</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01408569271742399</v>
+        <v>0.0146419286116509</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04569484742788159</v>
+        <v>0.04414144119678204</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>22</v>
@@ -3853,19 +3853,19 @@
         <v>17854</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>11549</v>
+        <v>11740</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>27365</v>
+        <v>28558</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01791712795936546</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01159002476260868</v>
+        <v>0.01178102440236468</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0274614215777074</v>
+        <v>0.02865830687943662</v>
       </c>
     </row>
     <row r="51">
@@ -3882,19 +3882,19 @@
         <v>13648</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>7280</v>
+        <v>6952</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>26698</v>
+        <v>25341</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.02398596027165865</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.01279549080914655</v>
+        <v>0.01221896450568315</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04692214833740294</v>
+        <v>0.04453721651696758</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>12</v>
@@ -3903,19 +3903,19 @@
         <v>9084</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>5081</v>
+        <v>4593</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>16098</v>
+        <v>16082</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.02124977754710496</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.01188438980722963</v>
+        <v>0.01074292073268112</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.03765573211808523</v>
+        <v>0.0376198073549238</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>23</v>
@@ -3924,19 +3924,19 @@
         <v>22732</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>14701</v>
+        <v>13986</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>36787</v>
+        <v>35369</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.02281212202050233</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01475256652486223</v>
+        <v>0.01403558817571284</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.0369166582068924</v>
+        <v>0.0354935157455674</v>
       </c>
     </row>
     <row r="52">
@@ -3953,19 +3953,19 @@
         <v>33963</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>21321</v>
+        <v>21450</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>55037</v>
+        <v>53791</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.05969002775439766</v>
+        <v>0.05969002775439765</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.03747269374552239</v>
+        <v>0.03769816852235751</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.09672875202648934</v>
+        <v>0.094537859724833</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>43</v>
@@ -3974,19 +3974,19 @@
         <v>29189</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>21617</v>
+        <v>21064</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>39912</v>
+        <v>39009</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.06827865045322339</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0505651513782731</v>
+        <v>0.04927176908261047</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09336178737216688</v>
+        <v>0.09124985852169065</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>66</v>
@@ -3995,19 +3995,19 @@
         <v>63152</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>47640</v>
+        <v>48222</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>83559</v>
+        <v>85418</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.06337459668254755</v>
+        <v>0.06337459668254757</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0478077616200544</v>
+        <v>0.0483919319584248</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08385337175883019</v>
+        <v>0.08571976608088658</v>
       </c>
     </row>
     <row r="53">
@@ -4024,19 +4024,19 @@
         <v>50164</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>39364</v>
+        <v>38897</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>64998</v>
+        <v>64576</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.08816325996010851</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.06918342034066048</v>
+        <v>0.06836261608876468</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1142339772344773</v>
+        <v>0.1134926627941958</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>73</v>
@@ -4045,19 +4045,19 @@
         <v>44577</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>34506</v>
+        <v>34856</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>55405</v>
+        <v>56103</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1042738274473967</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.08071540343250921</v>
+        <v>0.08153504956060641</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1296038244102736</v>
+        <v>0.1312361476627197</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>132</v>
@@ -4066,19 +4066,19 @@
         <v>94741</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>79094</v>
+        <v>79790</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>111532</v>
+        <v>112857</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.09507478680906886</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0793733924923291</v>
+        <v>0.08007113607306764</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1119256264952161</v>
+        <v>0.1132546412747672</v>
       </c>
     </row>
     <row r="54">
@@ -4095,19 +4095,19 @@
         <v>444248</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>419093</v>
+        <v>421110</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>465137</v>
+        <v>466090</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.7807707446666056</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.7365601682227465</v>
+        <v>0.7401055061187563</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.8174829302031709</v>
+        <v>0.8191582052492802</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>469</v>
@@ -4116,19 +4116,19 @@
         <v>318961</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>301561</v>
+        <v>303304</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>334082</v>
+        <v>334823</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.7461115230604068</v>
+        <v>0.7461115230604067</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.7054086517392816</v>
+        <v>0.7094853921962808</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.7814811823359472</v>
+        <v>0.7832149100219756</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>926</v>
@@ -4137,19 +4137,19 @@
         <v>763210</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>732289</v>
+        <v>736749</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>789293</v>
+        <v>789291</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.7659017376695323</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.7348722900550509</v>
+        <v>0.7393473667386163</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.792077204404472</v>
+        <v>0.7920748277814211</v>
       </c>
     </row>
     <row r="55">
@@ -4254,19 +4254,19 @@
         <v>2037</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>5497</v>
+        <v>5514</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.005081701997166297</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.001636566951519653</v>
+        <v>0.001639169786464065</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01371458980764311</v>
+        <v>0.0137564560752076</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>3</v>
@@ -4275,19 +4275,19 @@
         <v>2037</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>5314</v>
+        <v>5460</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.003024599064437801</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0009596485204482592</v>
+        <v>0.0009720017230371172</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.007891786009404411</v>
+        <v>0.008108685651805891</v>
       </c>
     </row>
     <row r="57">
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>6156</v>
+        <v>5357</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.00399880791824412</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.015360513591916</v>
+        <v>0.01336664100682592</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>5407</v>
+        <v>5980</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.002380066893952466</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.008030303408474423</v>
+        <v>0.008880314287657278</v>
       </c>
     </row>
     <row r="58">
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>4218</v>
+        <v>4162</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.002900737066462497</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01052321698578295</v>
+        <v>0.01038523945565672</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>2</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>4112</v>
+        <v>3739</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.001726501597751091</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.006105743263549564</v>
+        <v>0.005552208072917598</v>
       </c>
     </row>
     <row r="60">
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>5982</v>
+        <v>6275</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.006620972328296061</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.02194582777261837</v>
+        <v>0.02302019917324868</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>5</v>
@@ -4545,19 +4545,19 @@
         <v>3342</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>7180</v>
+        <v>7316</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>0.008339301575917507</v>
+        <v>0.008339301575917508</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.003247600406168671</v>
+        <v>0.003257864816841182</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.01791466313322321</v>
+        <v>0.01825430238275707</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>7</v>
@@ -4566,19 +4566,19 @@
         <v>5147</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>2079</v>
+        <v>2143</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>9935</v>
+        <v>10612</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.007643711764345258</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.003087331706004802</v>
+        <v>0.003181915166947758</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.0147540039951226</v>
+        <v>0.01575902913513292</v>
       </c>
     </row>
     <row r="62">
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>8824</v>
+        <v>8589</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.005951332929223403</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.03237028268912206</v>
+        <v>0.03150738569500634</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>2</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>6222</v>
+        <v>4829</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.003853784403867774</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.01552448008511686</v>
+        <v>0.01204876407655891</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>3</v>
@@ -4637,19 +4637,19 @@
         <v>3167</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>10296</v>
+        <v>9533</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.004702884415134765</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.001007229162574283</v>
+        <v>0.0009984237634692401</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.01529007077331566</v>
+        <v>0.01415684877493205</v>
       </c>
     </row>
     <row r="63">
@@ -4666,19 +4666,19 @@
         <v>9042</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>3864</v>
+        <v>4203</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>16596</v>
+        <v>18388</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.0331695183426822</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.01417551240643546</v>
+        <v>0.01541726988426225</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.06088241656637809</v>
+        <v>0.0674560201514012</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>9</v>
@@ -4687,19 +4687,19 @@
         <v>5953</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>2759</v>
+        <v>2772</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>11155</v>
+        <v>11225</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.01485331570388104</v>
+        <v>0.01485331570388105</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.00688344589270667</v>
+        <v>0.006916583181433597</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.02783174214745311</v>
+        <v>0.0280080191886563</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>17</v>
@@ -4708,19 +4708,19 @@
         <v>14995</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>8988</v>
+        <v>8793</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>24149</v>
+        <v>24097</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.0222678225336278</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01334729480954355</v>
+        <v>0.01305745944145423</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03586193909564831</v>
+        <v>0.03578555671827661</v>
       </c>
     </row>
     <row r="64">
@@ -4737,19 +4737,19 @@
         <v>4941</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>1142</v>
+        <v>1784</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>12913</v>
+        <v>12641</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.01812611986582527</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.004190425167029376</v>
+        <v>0.00654368607901644</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.04737173283724685</v>
+        <v>0.0463749740600289</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>6</v>
@@ -4758,19 +4758,19 @@
         <v>3987</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>8620</v>
+        <v>8390</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.009947927701613528</v>
+        <v>0.00994792770161353</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.004547873860303198</v>
+        <v>0.004539879514719587</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.02150768162101922</v>
+        <v>0.02093248216641166</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>10</v>
@@ -4779,19 +4779,19 @@
         <v>8928</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>4554</v>
+        <v>4212</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>18000</v>
+        <v>17094</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.01325850811242832</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.006762566793440756</v>
+        <v>0.006254770856947725</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.02673026340502447</v>
+        <v>0.02538499233365962</v>
       </c>
     </row>
     <row r="65">
@@ -4808,19 +4808,19 @@
         <v>11241</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>5009</v>
+        <v>5416</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>21880</v>
+        <v>22612</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.04123816581545645</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.0183743669987877</v>
+        <v>0.01986894639788206</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.08026882405526969</v>
+        <v>0.08295286020970534</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>20</v>
@@ -4829,19 +4829,19 @@
         <v>12615</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>7829</v>
+        <v>8004</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>19730</v>
+        <v>19912</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.03147405312548927</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.01953418195424425</v>
+        <v>0.01997080128522974</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.04922662579567333</v>
+        <v>0.04968053995835927</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>29</v>
@@ -4850,19 +4850,19 @@
         <v>23856</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>15406</v>
+        <v>16039</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>35091</v>
+        <v>34912</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.03542662351651641</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.0228791981294167</v>
+        <v>0.02381838195451127</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.05211204164073575</v>
+        <v>0.05184628840215785</v>
       </c>
     </row>
     <row r="66">
@@ -4879,19 +4879,19 @@
         <v>22257</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>14815</v>
+        <v>14504</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>32206</v>
+        <v>31774</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.08165132764262968</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.05435081720102328</v>
+        <v>0.05320684890173269</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1181481650379754</v>
+        <v>0.1165641648178632</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>59</v>
@@ -4900,19 +4900,19 @@
         <v>35287</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>27523</v>
+        <v>26619</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>46038</v>
+        <v>44396</v>
       </c>
       <c r="N66" s="6" t="n">
-        <v>0.08804163407777855</v>
+        <v>0.08804163407777857</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.06867080156867419</v>
+        <v>0.06641677041890981</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1148665972475173</v>
+        <v>0.1107696620564792</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>84</v>
@@ -4921,19 +4921,19 @@
         <v>57544</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>46106</v>
+        <v>45554</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>71010</v>
+        <v>70009</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.08545480035236355</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.06846880417641453</v>
+        <v>0.06764962303660155</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1054518143865248</v>
+        <v>0.1039663041183074</v>
       </c>
     </row>
     <row r="67">
@@ -4950,19 +4950,19 @@
         <v>221682</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>207197</v>
+        <v>207216</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>234134</v>
+        <v>235524</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.8132425630758869</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.7601047550199688</v>
+        <v>0.7601730242906816</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.8589230357808906</v>
+        <v>0.8640231607886413</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>535</v>
@@ -4971,19 +4971,19 @@
         <v>333264</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>319892</v>
+        <v>321743</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>343433</v>
+        <v>345657</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>0.8315087364295795</v>
+        <v>0.8315087364295793</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.7981463703432893</v>
+        <v>0.8027638123089255</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.8568813507377955</v>
+        <v>0.8624306836109787</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>758</v>
@@ -4992,19 +4992,19 @@
         <v>554946</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>535435</v>
+        <v>538759</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>571990</v>
+        <v>572871</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.8241144817494424</v>
+        <v>0.8241144817494426</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.7951405893129154</v>
+        <v>0.8000771068214649</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.8494254417432296</v>
+        <v>0.8507343183551044</v>
       </c>
     </row>
     <row r="68">
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>12599</v>
+        <v>13651</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.006851647864531445</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.02763567174050172</v>
+        <v>0.02994191935932014</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>2</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>13316</v>
+        <v>12699</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.005490950111173405</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.02340648179791638</v>
+        <v>0.02232209620770749</v>
       </c>
     </row>
     <row r="70">
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>19272</v>
+        <v>16035</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.03195068073241182</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.1705877964056614</v>
+        <v>0.1419295106348934</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>5</v>
@@ -5180,19 +5180,19 @@
         <v>4085</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>1385</v>
+        <v>1095</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>11000</v>
+        <v>11221</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.008960318463200459</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.003038008828440122</v>
+        <v>0.002402697844206991</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.02412745616920365</v>
+        <v>0.02461174716793865</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>6</v>
@@ -5201,19 +5201,19 @@
         <v>7695</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>2100</v>
+        <v>2509</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>21179</v>
+        <v>23761</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.01352607182751797</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.003691576901437755</v>
+        <v>0.004410758088505102</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.03722888258425152</v>
+        <v>0.04176834784939564</v>
       </c>
     </row>
     <row r="71">
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>9643</v>
+        <v>7992</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.01454127463554067</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.08535639047080469</v>
+        <v>0.07073673469942794</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>8171</v>
+        <v>7522</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.00288781328503016</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.01436262566592015</v>
+        <v>0.01322309290123542</v>
       </c>
     </row>
     <row r="73">
@@ -5403,16 +5403,16 @@
         <v>633</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>5988</v>
+        <v>6138</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.005174350843841519</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.001388943860038989</v>
+        <v>0.001387781502423553</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.01313408576669828</v>
+        <v>0.01346222760627752</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>4</v>
@@ -5421,19 +5421,19 @@
         <v>2359</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>6329</v>
+        <v>6352</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.004146754606044654</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.001361793967358778</v>
+        <v>0.001357797261697767</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.01112451987524363</v>
+        <v>0.01116599674165006</v>
       </c>
     </row>
     <row r="75">
@@ -5463,19 +5463,19 @@
         <v>1390</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>3955</v>
+        <v>4317</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.003048014900018829</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.0007940872921978249</v>
+        <v>0.0007802660475694025</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.008676062711318589</v>
+        <v>0.009468491626571778</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>3</v>
@@ -5484,19 +5484,19 @@
         <v>1390</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>3495</v>
+        <v>4185</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.002442696718369826</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.0006055698999509076</v>
+        <v>0.0006126277859071947</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.006143456450410545</v>
+        <v>0.00735645288297042</v>
       </c>
     </row>
     <row r="76">
@@ -5513,19 +5513,19 @@
         <v>10784</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>2039</v>
+        <v>2007</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>28057</v>
+        <v>30241</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.095457397969598</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.01804691082629028</v>
+        <v>0.01776594197276184</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2483426416731913</v>
+        <v>0.2676710191403245</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>13</v>
@@ -5534,19 +5534,19 @@
         <v>12745</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>6237</v>
+        <v>6307</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>26173</v>
+        <v>25999</v>
       </c>
       <c r="N76" s="6" t="n">
-        <v>0.02795579471176218</v>
+        <v>0.02795579471176217</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.01367939700910438</v>
+        <v>0.01383471541293565</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.05740957248954671</v>
+        <v>0.05702617813359669</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>16</v>
@@ -5555,19 +5555,19 @@
         <v>23530</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>11462</v>
+        <v>12626</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>45525</v>
+        <v>46189</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.04136122384604009</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.02014884569053891</v>
+        <v>0.02219473226743322</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.08002512922467606</v>
+        <v>0.0811932075665724</v>
       </c>
     </row>
     <row r="77">
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>5986</v>
+        <v>7029</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.01043407155237173</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.05298591127689263</v>
+        <v>0.0622152297121789</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>6</v>
@@ -5605,19 +5605,19 @@
         <v>3455</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>1108</v>
+        <v>1369</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>7402</v>
+        <v>7958</v>
       </c>
       <c r="N77" s="6" t="n">
-        <v>0.007577482284014966</v>
+        <v>0.007577482284014965</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.002430170286313271</v>
+        <v>0.003002733305284912</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.01623631688513966</v>
+        <v>0.01745525191707601</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>7</v>
@@ -5626,19 +5626,19 @@
         <v>4633</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1952</v>
+        <v>1910</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>10169</v>
+        <v>10041</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.008144784439141926</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.003431910140124236</v>
+        <v>0.003357971551032614</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.01787556339037935</v>
+        <v>0.01765114028447022</v>
       </c>
     </row>
     <row r="78">
@@ -5655,19 +5655,19 @@
         <v>11986</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>3087</v>
+        <v>3583</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>27663</v>
+        <v>28225</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.1060884609050782</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.02732162176204748</v>
+        <v>0.03171341249103021</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.2448557811050877</v>
+        <v>0.2498315550717256</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>19</v>
@@ -5676,19 +5676,19 @@
         <v>11488</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>6944</v>
+        <v>6636</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>21430</v>
+        <v>21711</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.02519811935208048</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.01523030754901299</v>
+        <v>0.01455579915817443</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.04700629583683794</v>
+        <v>0.04762220785555041</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>23</v>
@@ -5697,19 +5697,19 @@
         <v>23473</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>12658</v>
+        <v>12826</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>42297</v>
+        <v>41326</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.04126247470071245</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.02225080824269481</v>
+        <v>0.02254603463105392</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.07435134917409332</v>
+        <v>0.07264339457637707</v>
       </c>
     </row>
     <row r="79">
@@ -5726,19 +5726,19 @@
         <v>9933</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>4502</v>
+        <v>4542</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>19804</v>
+        <v>19628</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.08791668227499499</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.03984492231739555</v>
+        <v>0.04020318990879335</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.1752914994434095</v>
+        <v>0.1737366794196731</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>77</v>
@@ -5747,19 +5747,19 @@
         <v>55724</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>40688</v>
+        <v>42677</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>70357</v>
+        <v>70977</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.1222261489875417</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.08924700797950155</v>
+        <v>0.09360817831971829</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.154324171684496</v>
+        <v>0.155683220276471</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>85</v>
@@ -5768,19 +5768,19 @@
         <v>65656</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>50388</v>
+        <v>50608</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>84368</v>
+        <v>83290</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.1154124867565409</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.08857313192684466</v>
+        <v>0.08895996555894037</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.1483053565451791</v>
+        <v>0.1464105636050809</v>
       </c>
     </row>
     <row r="80">
@@ -5797,19 +5797,19 @@
         <v>73843</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>56746</v>
+        <v>54747</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>89312</v>
+        <v>88467</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.6536114319300046</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.5022793823837508</v>
+        <v>0.4845810795789237</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.7905368921117745</v>
+        <v>0.7830533866171341</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>500</v>
@@ -5818,19 +5818,19 @@
         <v>361537</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>342930</v>
+        <v>341642</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>380113</v>
+        <v>378136</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.7930081225930085</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.7521949185943372</v>
+        <v>0.749369603655454</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.8337526163566651</v>
+        <v>0.8294165519072325</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>534</v>
@@ -5839,19 +5839,19 @@
         <v>435379</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>408337</v>
+        <v>409725</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>459067</v>
+        <v>461568</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.7653247437094286</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.7177892386131407</v>
+        <v>0.7202280048421955</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.8069643510696488</v>
+        <v>0.8113590491784529</v>
       </c>
     </row>
     <row r="81">
@@ -5943,19 +5943,19 @@
         <v>13306</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>6904</v>
+        <v>7540</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>23570</v>
+        <v>23606</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.007546748535736572</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.003915504999150929</v>
+        <v>0.004276225236547883</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.01336794501666302</v>
+        <v>0.01338845276028527</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>14</v>
@@ -5964,19 +5964,19 @@
         <v>12294</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>6988</v>
+        <v>6593</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>22774</v>
+        <v>22616</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.006775328477918644</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.003851214093415505</v>
+        <v>0.003633295893346723</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.0125509598122246</v>
+        <v>0.01246349889358979</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>26</v>
@@ -5985,19 +5985,19 @@
         <v>25600</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>16549</v>
+        <v>16863</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>38827</v>
+        <v>39460</v>
       </c>
       <c r="U82" s="6" t="n">
-        <v>0.007155497261970936</v>
+        <v>0.007155497261970937</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.004625549128872339</v>
+        <v>0.00471331121731959</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.01085259917366365</v>
+        <v>0.0110295902851243</v>
       </c>
     </row>
     <row r="83">
@@ -6014,19 +6014,19 @@
         <v>25864</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>16685</v>
+        <v>15900</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>42151</v>
+        <v>41353</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.01466947639805372</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.009463435926756591</v>
+        <v>0.009017857189172397</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.02390688208074823</v>
+        <v>0.02345402100839653</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>20</v>
@@ -6035,19 +6035,19 @@
         <v>15366</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>9373</v>
+        <v>9349</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>23009</v>
+        <v>23641</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.008468204315570816</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.005165524095996782</v>
+        <v>0.005152122763024266</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.01268016111105183</v>
+        <v>0.0130286976335311</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>41</v>
@@ -6056,19 +6056,19 @@
         <v>41230</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>28412</v>
+        <v>29193</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>57326</v>
+        <v>59323</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.01152429553757451</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.007941572521478498</v>
+        <v>0.008159867963712274</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.01602308794986419</v>
+        <v>0.01658139660158511</v>
       </c>
     </row>
     <row r="84">
@@ -6101,16 +6101,16 @@
         <v>0</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>3594</v>
+        <v>3355</v>
       </c>
       <c r="N84" s="6" t="n">
-        <v>0.000393849045998179</v>
+        <v>0.0003938490459981789</v>
       </c>
       <c r="O84" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.001980528368390256</v>
+        <v>0.001848889355080992</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>4314</v>
+        <v>4874</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.0001997536094071042</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.001205755537075895</v>
+        <v>0.001362396336330415</v>
       </c>
     </row>
     <row r="85">
@@ -6148,19 +6148,19 @@
         <v>4952</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1125</v>
+        <v>1595</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>11944</v>
+        <v>13169</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.002808869656863716</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.0006382946596116776</v>
+        <v>0.0009046342007370436</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.006773977777215545</v>
+        <v>0.007468956703018719</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>5</v>
@@ -6169,19 +6169,19 @@
         <v>3979</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>1411</v>
+        <v>1377</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>9206</v>
+        <v>9669</v>
       </c>
       <c r="N85" s="6" t="n">
         <v>0.002192684178977385</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.0007776905014461728</v>
+        <v>0.0007587880643223608</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.005073444159852984</v>
+        <v>0.005328666416448452</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>9</v>
@@ -6190,19 +6190,19 @@
         <v>8931</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>4287</v>
+        <v>4183</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>18179</v>
+        <v>17468</v>
       </c>
       <c r="U85" s="6" t="n">
-        <v>0.002496350750133635</v>
+        <v>0.002496350750133636</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.001198276565263386</v>
+        <v>0.001169070879728935</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.005081179599636749</v>
+        <v>0.0048824445039173</v>
       </c>
     </row>
     <row r="86">
@@ -6232,19 +6232,19 @@
         <v>4047</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>1509</v>
+        <v>1457</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>9565</v>
+        <v>9265</v>
       </c>
       <c r="N86" s="6" t="n">
-        <v>0.002230169745317119</v>
+        <v>0.002230169745317118</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.0008317764350036207</v>
+        <v>0.0008032198572268544</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.00527119086238204</v>
+        <v>0.005105977456055508</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>5</v>
@@ -6253,19 +6253,19 @@
         <v>4047</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>1486</v>
+        <v>1467</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>9471</v>
+        <v>9254</v>
       </c>
       <c r="U86" s="6" t="n">
-        <v>0.001131104571012916</v>
+        <v>0.001131104571012917</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.0004154447833596097</v>
+        <v>0.0004101600519810192</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.002647318595409531</v>
+        <v>0.002586491362857677</v>
       </c>
     </row>
     <row r="87">
@@ -6282,19 +6282,19 @@
         <v>19827</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>12181</v>
+        <v>11619</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>30956</v>
+        <v>31824</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>0.01124537726495318</v>
+        <v>0.01124537726495317</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.006908898457346333</v>
+        <v>0.006589843896393331</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.01755697632587318</v>
+        <v>0.01804946003076557</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>29</v>
@@ -6303,19 +6303,19 @@
         <v>18527</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>12748</v>
+        <v>12320</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>26791</v>
+        <v>26645</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.01021037375842167</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.007025219600366741</v>
+        <v>0.006789671167413481</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.01476478015981766</v>
+        <v>0.0146839185604901</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>47</v>
@@ -6324,19 +6324,19 @@
         <v>38354</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>27835</v>
+        <v>27660</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>50834</v>
+        <v>51276</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.01072044090093407</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.007780242842329828</v>
+        <v>0.007731351836372145</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.01420867909166728</v>
+        <v>0.0143321357042223</v>
       </c>
     </row>
     <row r="88">
@@ -6353,19 +6353,19 @@
         <v>10347</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>5075</v>
+        <v>5254</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>19998</v>
+        <v>19726</v>
       </c>
       <c r="G88" s="6" t="n">
         <v>0.005868338904362583</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.002878498855003257</v>
+        <v>0.002980060832643063</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.01134234941855483</v>
+        <v>0.01118769208354493</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>18</v>
@@ -6374,19 +6374,19 @@
         <v>12601</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>7321</v>
+        <v>7838</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>20000</v>
+        <v>20399</v>
       </c>
       <c r="N88" s="6" t="n">
-        <v>0.006944377001906968</v>
+        <v>0.006944377001906967</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0.00403442130902784</v>
+        <v>0.004319765881388212</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.01102181525257631</v>
+        <v>0.0112418140252971</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>28</v>
@@ -6395,19 +6395,19 @@
         <v>22948</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>15563</v>
+        <v>15906</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>33980</v>
+        <v>33351</v>
       </c>
       <c r="U88" s="6" t="n">
-        <v>0.006414087322514237</v>
+        <v>0.006414087322514238</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.004350101326350365</v>
+        <v>0.004445860577647803</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.0094978374620657</v>
+        <v>0.009321973747652965</v>
       </c>
     </row>
     <row r="89">
@@ -6424,19 +6424,19 @@
         <v>46656</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>29985</v>
+        <v>31713</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>69114</v>
+        <v>68169</v>
       </c>
       <c r="G89" s="6" t="n">
         <v>0.02646180067768184</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.01700637108243578</v>
+        <v>0.01798670484560425</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.03919932860273493</v>
+        <v>0.03866352130079722</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>60</v>
@@ -6445,19 +6445,19 @@
         <v>47137</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>35494</v>
+        <v>35371</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>64368</v>
+        <v>65237</v>
       </c>
       <c r="N89" s="6" t="n">
         <v>0.02597743174530198</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.01956085007770715</v>
+        <v>0.01949293750430943</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.03547322028172302</v>
+        <v>0.03595217817536267</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>96</v>
@@ -6466,19 +6466,19 @@
         <v>93793</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>72752</v>
+        <v>75201</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>120766</v>
+        <v>121002</v>
       </c>
       <c r="U89" s="6" t="n">
         <v>0.02621613690494799</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.02033502602065702</v>
+        <v>0.02101950484751689</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.03375515110028226</v>
+        <v>0.03382125114716508</v>
       </c>
     </row>
     <row r="90">
@@ -6495,19 +6495,19 @@
         <v>34306</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>23934</v>
+        <v>23417</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>51175</v>
+        <v>50556</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.01945734352950501</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.01357466367153136</v>
+        <v>0.01328150126500199</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.02902500573964791</v>
+        <v>0.02867351662065348</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>32</v>
@@ -6516,19 +6516,19 @@
         <v>21671</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>15323</v>
+        <v>14913</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>29984</v>
+        <v>31564</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.01194308285263028</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>0.00844452026686378</v>
+        <v>0.00821872511734994</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.01652423640758311</v>
+        <v>0.01739526251119598</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>64</v>
@@ -6537,19 +6537,19 @@
         <v>55977</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>42483</v>
+        <v>41894</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>72911</v>
+        <v>70514</v>
       </c>
       <c r="U90" s="6" t="n">
-        <v>0.01564623694569336</v>
+        <v>0.01564623694569337</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.01187448775390134</v>
+        <v>0.01170983418808107</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.02037934071098675</v>
+        <v>0.01970946245416174</v>
       </c>
     </row>
     <row r="91">
@@ -6566,19 +6566,19 @@
         <v>103754</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>80706</v>
+        <v>81300</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>134564</v>
+        <v>131441</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.05884575442881849</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.04577392922810448</v>
+        <v>0.04611055528834376</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.0763205134221569</v>
+        <v>0.0745493365022897</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>135</v>
@@ -6587,19 +6587,19 @@
         <v>89360</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>75307</v>
+        <v>74260</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>106710</v>
+        <v>106444</v>
       </c>
       <c r="N91" s="6" t="n">
-        <v>0.04924668576223144</v>
+        <v>0.04924668576223142</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.04150189017319671</v>
+        <v>0.04092507371059274</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.05880805853866709</v>
+        <v>0.05866135248015585</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>214</v>
@@ -6608,19 +6608,19 @@
         <v>193114</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>165740</v>
+        <v>162811</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>227610</v>
+        <v>224914</v>
       </c>
       <c r="U91" s="6" t="n">
-        <v>0.05397726831064653</v>
+        <v>0.05397726831064654</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.046326022142246</v>
+        <v>0.04550729301209643</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.06361929232772356</v>
+        <v>0.06286569059019874</v>
       </c>
     </row>
     <row r="92">
@@ -6637,19 +6637,19 @@
         <v>197898</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>171444</v>
+        <v>173070</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>223723</v>
+        <v>224981</v>
       </c>
       <c r="G92" s="6" t="n">
         <v>0.1122416220973299</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.09723757548380219</v>
+        <v>0.09815948446354816</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.1268886593523049</v>
+        <v>0.1276019738048307</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>295</v>
@@ -6658,19 +6658,19 @@
         <v>187172</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>164061</v>
+        <v>165389</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>209656</v>
+        <v>210859</v>
       </c>
       <c r="N92" s="6" t="n">
-        <v>0.1031509011345631</v>
+        <v>0.103150901134563</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.09041425054815509</v>
+        <v>0.09114640224333848</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.1155417137216212</v>
+        <v>0.1162048767769003</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>520</v>
@@ -6679,19 +6679,19 @@
         <v>385070</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>353399</v>
+        <v>352072</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>423191</v>
+        <v>419615</v>
       </c>
       <c r="U92" s="6" t="n">
         <v>0.1076309613813105</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.09877851186658002</v>
+        <v>0.0984075796961944</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.1182861439320435</v>
+        <v>0.1172865790119699</v>
       </c>
     </row>
     <row r="93">
@@ -6708,19 +6708,19 @@
         <v>1306236</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>1265825</v>
+        <v>1259354</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>1342884</v>
+        <v>1343949</v>
       </c>
       <c r="G93" s="6" t="n">
-        <v>0.7408546685066949</v>
+        <v>0.740854668506695</v>
       </c>
       <c r="H93" s="6" t="n">
-        <v>0.7179350979523234</v>
+        <v>0.7142649229154825</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>0.7616404581190194</v>
+        <v>0.7622445177697315</v>
       </c>
       <c r="J93" s="5" t="n">
         <v>2076</v>
@@ -6729,19 +6729,19 @@
         <v>1401676</v>
       </c>
       <c r="L93" s="5" t="n">
-        <v>1369208</v>
+        <v>1370032</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>1433503</v>
+        <v>1434179</v>
       </c>
       <c r="N93" s="6" t="n">
-        <v>0.7724669119811626</v>
+        <v>0.7724669119811625</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>0.7545740052107923</v>
+        <v>0.7550281129419387</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>0.7900069719167157</v>
+        <v>0.7903792758532621</v>
       </c>
       <c r="Q93" s="5" t="n">
         <v>3370</v>
@@ -6750,19 +6750,19 @@
         <v>2707911</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>2651518</v>
+        <v>2655462</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>2760071</v>
+        <v>2758432</v>
       </c>
       <c r="U93" s="6" t="n">
-        <v>0.7568878665038542</v>
+        <v>0.7568878665038543</v>
       </c>
       <c r="V93" s="6" t="n">
-        <v>0.7411254425810857</v>
+        <v>0.7422279162791852</v>
       </c>
       <c r="W93" s="6" t="n">
-        <v>0.7714671776048153</v>
+        <v>0.7710090451571734</v>
       </c>
     </row>
     <row r="94">
